--- a/contact_site/auto_message_setting_template.xlsx
+++ b/contact_site/auto_message_setting_template.xlsx
@@ -1330,6 +1330,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,15 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,14 +1461,7 @@
     <cellStyle name="標準 8" xfId="60"/>
     <cellStyle name="標準 9" xfId="61"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1859,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BR305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG299" sqref="BG299"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1934,163 +1927,163 @@
   <sheetData>
     <row r="1" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:70" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="37"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="40"/>
     </row>
     <row r="3" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="44" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="44" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="44" t="s">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="44" t="s">
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="44" t="s">
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="44" t="s">
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="44" t="s">
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="46"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="32"/>
       <c r="BD3" s="47" t="s">
         <v>21</v>
       </c>
@@ -2114,9 +2107,9 @@
       <c r="BR3" s="51"/>
     </row>
     <row r="4" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
@@ -33922,11 +33915,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AV3"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:BC2"/>
     <mergeCell ref="BD2:BR2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -33941,70 +33929,75 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E5:H305">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$E5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K305">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$I5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R305">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$L5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:T305">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$S5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:X305">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$U5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AD305">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$Y5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AG305">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$AE5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AO305">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$AH5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE5:BP305">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$BD5="シナリオを選択する"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BR305">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$BD5="チャットメッセージを送る"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E305:H306">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E305="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AV305">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$AP5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:BC305">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AW5="しない"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34031,7 +34024,7 @@
       <formula1>"自動で最大化する, 自動で最大化しない"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD5:BD305">
-      <formula1>"チャットメッセージを送る, シナリオを選択する"</formula1>
+      <formula1>"チャットメッセージを送る, シナリオを呼び出す"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO5:AO305">
       <formula1>"一回のみ有効, 何度でも有効"</formula1>

--- a/contact_site/auto_message_setting_template.xlsx
+++ b/contact_site/auto_message_setting_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5203" uniqueCount="63">
   <si>
     <t>チャットメッセージを送る</t>
   </si>
@@ -440,11 +440,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>呼出先</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビダシ</t>
+    <t>呼び出し先</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -459,22 +462,12 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
-  <si>
-    <t>※追加した列です。</t>
-    <rPh sb="1" eb="3">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -608,30 +601,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,14 +713,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBE5F1"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1180,11 +1145,55 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1443,10 +1452,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="33" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,6 +1478,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1482,46 +1506,28 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,21 +1595,7 @@
     <cellStyle name="標準 8" xfId="60"/>
     <cellStyle name="標準 9" xfId="61"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -2379,9 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BS305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2449,203 +2439,199 @@
     <col min="68" max="68" width="18.125" style="2" customWidth="1"/>
     <col min="69" max="69" width="16.375" style="2" customWidth="1"/>
     <col min="70" max="70" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="31.125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="34.375" style="1" customWidth="1"/>
     <col min="72" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="BS1" s="56" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="1" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39"/>
-      <c r="BD2" s="40" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="42"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="47"/>
     </row>
     <row r="3" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="32" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="32" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="32" t="s">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="32" t="s">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="32" t="s">
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="32" t="s">
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="49" t="s">
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="BE3" s="51" t="s">
+      <c r="BE3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="51" t="s">
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="30" t="s">
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2785,7 @@
       <c r="BC4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BD4" s="50"/>
+      <c r="BD4" s="39"/>
       <c r="BE4" s="10" t="s">
         <v>44</v>
       </c>
@@ -2842,7 +2828,7 @@
       <c r="BR4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="BS4" s="31" t="s">
+      <c r="BS4" s="53" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2950,7 +2936,7 @@
       <c r="BP5" s="19"/>
       <c r="BQ5" s="29"/>
       <c r="BR5" s="20"/>
-      <c r="BS5" s="54"/>
+      <c r="BS5" s="55"/>
     </row>
     <row r="6" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
@@ -3880,7 +3866,7 @@
       <c r="BB14" s="23"/>
       <c r="BC14" s="24"/>
       <c r="BD14" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="17" t="s">
         <v>4</v>
@@ -34750,14 +34736,11 @@
       <c r="BP305" s="19"/>
       <c r="BQ305" s="29"/>
       <c r="BR305" s="20"/>
-      <c r="BS305" s="55"/>
+      <c r="BS305" s="54"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:BC2"/>
@@ -34774,6 +34757,9 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AV3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E5:H305">
